--- a/05_CrossVal/Model_comparisons.xlsx
+++ b/05_CrossVal/Model_comparisons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kshitijmittal/Documents/UChicago Acad/04 Quarter 4/01 Time Series/UK-GDP-Analysis/05_CrossVal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004C45A3-2DC7-BD40-8376-9D62A2A0333D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EE9E19-A0EB-C54D-AD99-5B6AB46E6D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="820" windowWidth="26700" windowHeight="17440" xr2:uid="{363B7E58-A7A0-BE49-A92D-B38567B03DBF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>MODEL</t>
   </si>
@@ -68,12 +68,6 @@
     <t>ARIMA(0,1,3)</t>
   </si>
   <si>
-    <t>ARIMAX</t>
-  </si>
-  <si>
-    <t>SARIMAX</t>
-  </si>
-  <si>
     <t>ARIMA(3,1,2) + ipi</t>
   </si>
   <si>
@@ -83,15 +77,75 @@
     <t>ARIMA(2,1,2)(1,0,0)[4] + ipi</t>
   </si>
   <si>
-    <t>EXPONENTIAL SMOOTHING</t>
+    <t>ARIMAX LOG EXOG</t>
+  </si>
+  <si>
+    <t>SARIMAX LOG EXOG</t>
+  </si>
+  <si>
+    <t>ARIMA(3,1,0)</t>
+  </si>
+  <si>
+    <t>ARIMA(1,1,0)(2,0,1)[4]</t>
+  </si>
+  <si>
+    <t>ARIMAX BC EXOG</t>
+  </si>
+  <si>
+    <t>SARIMAX BC EXOG</t>
+  </si>
+  <si>
+    <t>ARIMA INTERVENTION 1</t>
+  </si>
+  <si>
+    <t>ARIMA INTERVENTION 2</t>
+  </si>
+  <si>
+    <t>SARIMA INTERVENTION 1</t>
+  </si>
+  <si>
+    <t>SARIMA INTERVENTION 2</t>
+  </si>
+  <si>
+    <t>HOLT WINTER</t>
+  </si>
+  <si>
+    <t>ETS - ADD</t>
+  </si>
+  <si>
+    <t>ARIMA(1,1,0)</t>
+  </si>
+  <si>
+    <t>SARIMA(1,1,1)(2,0,1)[4]</t>
+  </si>
+  <si>
+    <t>ARIMAX IPI</t>
+  </si>
+  <si>
+    <t>SARIMAX IPI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -101,7 +155,22 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,10 +196,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6C57F9-4825-2A49-8C2B-CA0353D74D2B}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,7 +557,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>2179.3150000000001</v>
+      </c>
+      <c r="D2" s="2">
+        <v>20873.399000000001</v>
+      </c>
+      <c r="E2">
+        <v>4676.9126799493397</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -495,7 +582,7 @@
       <c r="C3">
         <v>2114.6729999999998</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>2930.54</v>
       </c>
       <c r="E3">
@@ -512,56 +599,178 @@
       <c r="C4">
         <v>2077.576</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>4256.88</v>
       </c>
       <c r="E4">
         <v>495.59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="4">
+        <v>1619.1780000000001</v>
+      </c>
+      <c r="D5" s="5">
+        <v>12570.495000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>377.56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
-        <v>1619.1780000000001</v>
-      </c>
-      <c r="D5">
-        <v>12570.495000000001</v>
-      </c>
-      <c r="E5">
-        <v>377.56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>1602.4939999999999</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>10818.284</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>371.52</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>14475.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7">
-        <v>14475.77</v>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>1594.91</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4874.2</v>
+      </c>
+      <c r="E9">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>1611</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3533.06</v>
+      </c>
+      <c r="E10">
+        <v>376.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>1568.3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5238</v>
+      </c>
+      <c r="E12">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>1550</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4666</v>
+      </c>
+      <c r="E13">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2041.681</v>
+      </c>
+      <c r="D15" s="8">
+        <v>2974.4459999999999</v>
+      </c>
+      <c r="E15" s="7">
+        <v>490.31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1986.7529999999999</v>
+      </c>
+      <c r="D16" s="8">
+        <v>3115.6109999999999</v>
+      </c>
+      <c r="E16" s="7">
+        <v>486.93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/05_CrossVal/Model_comparisons.xlsx
+++ b/05_CrossVal/Model_comparisons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kshitijmittal/Documents/UChicago Acad/04 Quarter 4/01 Time Series/UK-GDP-Analysis/05_CrossVal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EE9E19-A0EB-C54D-AD99-5B6AB46E6D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9678971-CB81-144B-89C3-63F9833D56FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="820" windowWidth="26700" windowHeight="17440" xr2:uid="{363B7E58-A7A0-BE49-A92D-B38567B03DBF}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/05_CrossVal/Model_comparisons.xlsx
+++ b/05_CrossVal/Model_comparisons.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kshitijmittal/Documents/UChicago Acad/04 Quarter 4/01 Time Series/UK-GDP-Analysis/05_CrossVal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9678971-CB81-144B-89C3-63F9833D56FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAD52D3-2EFA-D84D-BF51-212BE4CC1669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="820" windowWidth="26700" windowHeight="17440" xr2:uid="{363B7E58-A7A0-BE49-A92D-B38567B03DBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Before_CrossVal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -520,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6C57F9-4825-2A49-8C2B-CA0353D74D2B}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,123 +649,114 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D8" s="2"/>
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>1594.91</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4874.2</v>
+      </c>
+      <c r="E8">
+        <v>375</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>1594.91</v>
+        <v>1611</v>
       </c>
       <c r="D9" s="2">
-        <v>4874.2</v>
+        <v>3533.06</v>
       </c>
       <c r="E9">
-        <v>375</v>
+        <v>376.2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>1611</v>
+        <v>1568.3</v>
       </c>
       <c r="D10" s="2">
-        <v>3533.06</v>
+        <v>5238</v>
       </c>
       <c r="E10">
-        <v>376.2</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12">
-        <v>1568.3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>5238</v>
-      </c>
-      <c r="E12">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C13">
+      <c r="C11">
         <v>1550</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D11" s="2">
         <v>4666</v>
       </c>
-      <c r="E13">
+      <c r="E11">
         <v>364</v>
       </c>
     </row>
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2041.681</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2974.4459999999999</v>
+      </c>
+      <c r="E12" s="7">
+        <v>490.31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1986.7529999999999</v>
+      </c>
+      <c r="D13" s="8">
+        <v>3115.6109999999999</v>
+      </c>
+      <c r="E13" s="7">
+        <v>486.93</v>
+      </c>
+    </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2041.681</v>
-      </c>
-      <c r="D15" s="8">
-        <v>2974.4459999999999</v>
-      </c>
-      <c r="E15" s="7">
-        <v>490.31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1986.7529999999999</v>
-      </c>
-      <c r="D16" s="8">
-        <v>3115.6109999999999</v>
-      </c>
-      <c r="E16" s="7">
-        <v>486.93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
     </row>
